--- a/data/csv/stats_batting_raw_tsl_2024.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="185">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
@@ -58,21 +61,24 @@
     <t xml:space="preserve"> SLG%</t>
   </si>
   <si>
+    <t xml:space="preserve">OPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP</t>
+  </si>
+  <si>
     <t xml:space="preserve">  OB%</t>
   </si>
   <si>
-    <t xml:space="preserve">BB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDP</t>
-  </si>
-  <si>
     <t xml:space="preserve">SF</t>
   </si>
   <si>
@@ -154,6 +160,27 @@
     <t xml:space="preserve">ORIOLES.....</t>
   </si>
   <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRUZ</t>
   </si>
   <si>
@@ -166,22 +193,13 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
   </si>
   <si>
     <t xml:space="preserve">MARTIN</t>
@@ -202,15 +220,6 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
     <t xml:space="preserve">MADRIGAL</t>
   </si>
   <si>
@@ -220,46 +229,109 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
+  </si>
+  <si>
     <t xml:space="preserve">NARANJO</t>
   </si>
   <si>
     <t xml:space="preserve">ORIOLES...</t>
   </si>
   <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
   </si>
   <si>
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
   </si>
   <si>
     <t xml:space="preserve">MOLENMAN</t>
@@ -271,52 +343,25 @@
     <t xml:space="preserve">TAMPA...</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
   </si>
   <si>
     <t xml:space="preserve">LAMONJCA</t>
@@ -325,46 +370,37 @@
     <t xml:space="preserve">MIRKO</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
   </si>
   <si>
     <t xml:space="preserve">GANASSI</t>
   </si>
   <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
   </si>
   <si>
     <t xml:space="preserve">MONTIEL</t>
@@ -373,24 +409,6 @@
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">FRANCO</t>
   </si>
   <si>
@@ -400,18 +418,18 @@
     <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">VRANA</t>
   </si>
   <si>
     <t xml:space="preserve">ROMAN</t>
   </si>
   <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTAL TORO</t>
   </si>
   <si>
@@ -421,18 +439,6 @@
     <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
-  </si>
-  <si>
     <t xml:space="preserve">SWAAK</t>
   </si>
   <si>
@@ -463,6 +469,21 @@
     <t xml:space="preserve">DODGERS......</t>
   </si>
   <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOCH</t>
   </si>
   <si>
@@ -472,10 +493,10 @@
     <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
   </si>
   <si>
     <t xml:space="preserve">ROCCO</t>
@@ -490,12 +511,6 @@
     <t xml:space="preserve">MAICOL</t>
   </si>
   <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES......</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALDIVIA</t>
   </si>
   <si>
@@ -505,22 +520,19 @@
     <t xml:space="preserve">DODGERS...</t>
   </si>
   <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
   </si>
   <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
   </si>
   <si>
     <t xml:space="preserve">BONGE</t>
@@ -532,12 +544,6 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILDER</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORLONI</t>
   </si>
   <si>
@@ -547,15 +553,15 @@
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
     <t xml:space="preserve">YANCARLO</t>
   </si>
   <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZAMBRANO</t>
   </si>
   <si>
@@ -566,6 +572,9 @@
   </si>
   <si>
     <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
   </si>
 </sst>
 </file>
@@ -772,16 +781,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:Y64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
@@ -789,8 +799,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.47"/>
@@ -804,92 +813,98 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1,3)</f>
+        <f aca="false">MID(C2, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>8</v>
@@ -904,29 +919,32 @@
         <v>15</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.577</v>
+        <v>0.567</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1</v>
+        <v>0.933</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.686</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T2" s="0" t="n">
+        <v>0.675</v>
+      </c>
       <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
@@ -934,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>5</v>
@@ -946,26 +964,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1,3)</f>
+        <f aca="false">MID(C3, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>12</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3</v>
@@ -980,16 +998,16 @@
         <v>18</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.571</v>
+        <v>0.542</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1.429</v>
+        <v>1.292</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>9</v>
@@ -1003,6 +1021,9 @@
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T3" s="0" t="n">
+        <v>0.667</v>
+      </c>
       <c r="U3" s="0" t="n">
         <v>0</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>3</v>
@@ -1022,26 +1043,26 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1,3)</f>
+        <f aca="false">MID(C4, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>4</v>
@@ -1053,31 +1074,34 @@
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.545</v>
+        <v>0.538</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.909</v>
+        <v>0.846</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.563</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>1</v>
@@ -1098,16 +1122,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1,3)</f>
+        <f aca="false">MID(C5, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -1141,20 +1165,23 @@
         <v>0.727</v>
       </c>
       <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
         <v>0.455</v>
       </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" s="0" t="n">
         <v>0</v>
       </c>
@@ -1162,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>3</v>
@@ -1174,16 +1201,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1,3)</f>
+        <f aca="false">MID(C6, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -1217,7 +1244,7 @@
         <v>1.15</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>5</v>
@@ -1231,6 +1258,9 @@
       <c r="S6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T6" s="0" t="n">
+        <v>0.593</v>
+      </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
       </c>
@@ -1238,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>7</v>
@@ -1250,26 +1280,26 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1,3)</f>
+        <f aca="false">MID(C7, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -1284,29 +1314,32 @@
         <v>7</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.444</v>
+        <v>0.429</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.667</v>
+        <v>0.619</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.583</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T7" s="0" t="n">
+        <v>0.586</v>
+      </c>
       <c r="U7" s="0" t="n">
         <v>0</v>
       </c>
@@ -1314,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">X7-W7</f>
@@ -1326,56 +1359,56 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C8, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="Q8" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>5</v>
@@ -1383,17 +1416,20 @@
       <c r="S8" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T8" s="0" t="n">
+        <v>0.511</v>
+      </c>
       <c r="U8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">X8-W8</f>
@@ -1402,56 +1438,56 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C9, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.394</v>
+        <v>0.368</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.636</v>
+        <v>0.526</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>5</v>
@@ -1459,6 +1495,9 @@
       <c r="S9" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T9" s="0" t="n">
+        <v>0.538</v>
+      </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
       </c>
@@ -1466,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">X9-W9</f>
@@ -1478,74 +1517,77 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.375</v>
+        <v>0.36</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.565</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T10" s="0" t="n">
+        <v>0.543</v>
+      </c>
       <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">X10-W10</f>
@@ -1554,138 +1596,144 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C11, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.346</v>
+        <v>0.471</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.553</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T11" s="0" t="n">
+        <v>0.353</v>
+      </c>
       <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>25</v>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">X11-W11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C12, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.333</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.485</v>
+        <v>0.333</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0.524</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>0</v>
@@ -1694,74 +1742,77 @@
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">X12-W12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C13, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.333</v>
+        <v>0.459</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.432</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>0</v>
@@ -1769,39 +1820,39 @@
       <c r="V13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
+      <c r="W13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">X13-W13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1,3)</f>
+        <f aca="false">MID(C14, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -1816,16 +1867,16 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.31</v>
+        <v>0.323</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.379</v>
+        <v>0.387</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.487</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>10</v>
@@ -1839,6 +1890,9 @@
       <c r="S14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T14" s="0" t="n">
+        <v>0.488</v>
+      </c>
       <c r="U14" s="0" t="n">
         <v>0</v>
       </c>
@@ -1846,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>3</v>
@@ -1858,29 +1912,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C15, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1889,32 +1943,35 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="S15" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T15" s="0" t="n">
+        <v>0.457</v>
+      </c>
       <c r="U15" s="0" t="n">
         <v>0</v>
       </c>
@@ -1922,151 +1979,157 @@
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">X15-W15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1,3)</f>
+        <f aca="false">MID(C16, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.296</v>
+        <v>0.308</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.481</v>
+        <v>0.308</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.472</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T16" s="0" t="n">
+        <v>0.444</v>
+      </c>
       <c r="U16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>70</v>
+      <c r="W16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">X16-W16</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C17, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="L17" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.407</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.441</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T17" s="0" t="n">
+        <v>0.462</v>
+      </c>
       <c r="U17" s="0" t="n">
         <v>0</v>
       </c>
@@ -2074,117 +2137,120 @@
         <v>0</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">X17-W17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">MID(C18, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1,3)</f>
-        <v>TAM</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="X18" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">X18-W18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C19, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
@@ -2199,26 +2265,29 @@
         <v>11</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.286</v>
+        <v>0.292</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.524</v>
+        <v>0.458</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T19" s="0" t="n">
+        <v>0.469</v>
+      </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
       </c>
@@ -2226,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">X19-W19</f>
@@ -2238,30 +2307,30 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1,3)</f>
+        <f aca="false">MID(C20, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
       </c>
@@ -2269,183 +2338,192 @@
         <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.286</v>
+        <v>0.419</v>
       </c>
       <c r="O20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
         <v>0.421</v>
       </c>
-      <c r="P20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="0" t="n">
-        <v>0</v>
+      <c r="W20" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">X20-W20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C21, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">X21-W21</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C22, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>14</v>
-      </c>
       <c r="M22" s="0" t="n">
-        <v>0.282</v>
+        <v>0.276</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.359</v>
+        <v>0.31</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0.364</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>0</v>
@@ -2454,75 +2532,78 @@
         <v>0</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">X22-W22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C23, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="Q23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S23" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T23" s="0" t="n">
+        <v>0.386</v>
+      </c>
       <c r="U23" s="0" t="n">
         <v>0</v>
       </c>
@@ -2530,38 +2611,38 @@
         <v>0</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="0" t="n">
         <f aca="false">X23-W23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C24, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -2573,71 +2654,74 @@
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0.278</v>
+        <v>0.269</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.333</v>
+        <v>0.308</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0.321</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="0" t="n">
-        <v>0</v>
+      <c r="W24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="0" t="n">
         <f aca="false">X24-W24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C25, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -2649,43 +2733,46 @@
         <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.273</v>
+        <v>0.263</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.303</v>
+        <v>0.316</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0.423</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>70</v>
+      <c r="W25" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0" t="n">
         <f aca="false">X25-W25</f>
@@ -2694,63 +2781,66 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1,3)</f>
+        <f aca="false">MID(C26, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.273</v>
+        <v>0.261</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.318</v>
+        <v>0.478</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T26" s="0" t="n">
+        <v>0.37</v>
+      </c>
       <c r="U26" s="0" t="n">
         <v>0</v>
       </c>
@@ -2758,32 +2848,32 @@
         <v>0</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="0" t="n">
         <f aca="false">X26-W26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1,3)</f>
+        <f aca="false">MID(C27, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
@@ -2807,13 +2897,13 @@
         <v>5</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.273</v>
+        <v>0.25</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.455</v>
+        <v>0.417</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -2822,10 +2912,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0.25</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>0</v>
@@ -2846,62 +2939,65 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C28, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="S28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0.424</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
@@ -2913,29 +3009,29 @@
         <v>0</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="0" t="n">
         <f aca="false">X28-W28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C29, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
@@ -2947,38 +3043,41 @@
         <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.25</v>
+        <v>0.235</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.438</v>
+        <v>0.471</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T29" s="0" t="n">
+        <v>0.409</v>
+      </c>
       <c r="U29" s="0" t="n">
         <v>0</v>
       </c>
@@ -2986,41 +3085,41 @@
         <v>0</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="0" t="n">
         <f aca="false">X29-W29</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C30, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
@@ -3029,43 +3128,46 @@
         <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.25</v>
+        <v>0.222</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.25</v>
+        <v>0.296</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.438</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T30" s="0" t="n">
+        <v>0.276</v>
+      </c>
       <c r="U30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="0" t="n">
-        <v>0</v>
+      <c r="W30" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="0" t="n">
         <f aca="false">X30-W30</f>
@@ -3074,29 +3176,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C31, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1</v>
@@ -3105,31 +3207,34 @@
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>7</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.238</v>
+        <v>0.222</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.333</v>
+        <v>0.389</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0.417</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
@@ -3137,33 +3242,33 @@
       <c r="V31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W31" s="0" t="n">
-        <v>0</v>
+      <c r="W31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y31" s="0" t="n">
         <f aca="false">X31-W31</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1,3)</f>
+        <f aca="false">MID(C32, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>6</v>
@@ -3187,13 +3292,13 @@
         <v>9</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0.222</v>
+        <v>0.207</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.333</v>
+        <v>0.31</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>9</v>
@@ -3207,6 +3312,9 @@
       <c r="S32" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T32" s="0" t="n">
+        <v>0.395</v>
+      </c>
       <c r="U32" s="0" t="n">
         <v>0</v>
       </c>
@@ -3214,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X32" s="0" t="n">
         <v>4</v>
@@ -3226,96 +3334,99 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C33, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.214</v>
+        <v>0.3</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T33" s="0" t="n">
+        <v>0.238</v>
+      </c>
       <c r="U33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>70</v>
+      <c r="W33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="0" t="n">
         <f aca="false">X33-W33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1,3)</f>
+        <f aca="false">MID(C34, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
@@ -3330,34 +3441,37 @@
         <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="S34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.25</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>0</v>
@@ -3365,39 +3479,39 @@
       <c r="V34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>70</v>
+      <c r="W34" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y34" s="0" t="n">
         <f aca="false">X34-W34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C35, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1</v>
@@ -3409,25 +3523,25 @@
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.3</v>
+        <v>0.238</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>5</v>
@@ -3435,17 +3549,20 @@
       <c r="S35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T35" s="0" t="n">
+        <v>0.393</v>
+      </c>
       <c r="U35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W35" s="0" t="n">
-        <v>0</v>
+      <c r="W35" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y35" s="0" t="n">
         <f aca="false">X35-W35</f>
@@ -3454,29 +3571,29 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C36, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>0</v>
@@ -3485,32 +3602,35 @@
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.238</v>
+        <v>0.188</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0.393</v>
+        <v>0</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T36" s="0" t="n">
+        <v>0.235</v>
+      </c>
       <c r="U36" s="0" t="n">
         <v>0</v>
       </c>
@@ -3518,32 +3638,32 @@
         <v>0</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="Y36" s="0" t="n">
         <f aca="false">X36-W36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1,3)</f>
+        <f aca="false">MID(C37, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>3</v>
@@ -3567,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.176</v>
+        <v>0.167</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.176</v>
+        <v>0.167</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>3</v>
@@ -3582,11 +3702,14 @@
         <v>2</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S37" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T37" s="0" t="n">
+        <v>0.348</v>
+      </c>
       <c r="U37" s="0" t="n">
         <v>0</v>
       </c>
@@ -3594,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>4</v>
@@ -3606,74 +3729,77 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1,3)</f>
+        <f aca="false">MID(C38, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.174</v>
+        <v>0.167</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.217</v>
+        <v>0.278</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S38" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T38" s="0" t="n">
+        <v>0.318</v>
+      </c>
       <c r="U38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W38" s="0" t="n">
-        <v>0</v>
+      <c r="W38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="0" t="n">
         <f aca="false">X38-W38</f>
@@ -3682,29 +3808,29 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C39, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>0</v>
@@ -3713,31 +3839,34 @@
         <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0.167</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>0.375</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>0</v>
@@ -3758,27 +3887,27 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C40, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
@@ -3792,71 +3921,74 @@
         <v>3</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.167</v>
+        <v>0.16</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T40" s="0" t="n">
+        <v>0.222</v>
+      </c>
       <c r="U40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W40" s="1" t="s">
-        <v>36</v>
+      <c r="W40" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="0" t="n">
         <f aca="false">X40-W40</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C41, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
@@ -3865,68 +3997,71 @@
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.143</v>
+        <v>0.154</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.143</v>
+        <v>0.231</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S41" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T41" s="0" t="n">
+        <v>0.421</v>
+      </c>
       <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W41" s="0" t="n">
-        <v>0</v>
+      <c r="W41" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y41" s="0" t="n">
         <f aca="false">X41-W41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C42, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>2</v>
@@ -3935,37 +4070,40 @@
         <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.133</v>
+        <v>0.154</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.267</v>
+        <v>0.154</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S42" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.214</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -3986,29 +4124,29 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C43, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>0</v>
@@ -4017,31 +4155,34 @@
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M43" s="0" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="S43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.143</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0</v>
@@ -4053,25 +4194,25 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0" t="n">
         <f aca="false">X43-W43</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1,3)</f>
+        <f aca="false">MID(C44, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -4105,7 +4246,7 @@
         <v>0.125</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>8</v>
@@ -4119,6 +4260,9 @@
       <c r="S44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T44" s="0" t="n">
+        <v>0.611</v>
+      </c>
       <c r="U44" s="0" t="n">
         <v>0</v>
       </c>
@@ -4126,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X44" s="0" t="n">
         <v>1</v>
@@ -4138,16 +4282,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1,3)</f>
+        <f aca="false">MID(C45, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -4181,7 +4325,7 @@
         <v>0.118</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>6</v>
@@ -4195,6 +4339,9 @@
       <c r="S45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T45" s="0" t="n">
+        <v>0.348</v>
+      </c>
       <c r="U45" s="0" t="n">
         <v>0</v>
       </c>
@@ -4214,16 +4361,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1,3)</f>
+        <f aca="false">MID(C46, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E46" s="0" t="n">
@@ -4257,7 +4404,7 @@
         <v>0.158</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>2</v>
@@ -4271,6 +4418,9 @@
       <c r="S46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T46" s="0" t="n">
+        <v>0.182</v>
+      </c>
       <c r="U46" s="0" t="n">
         <v>1</v>
       </c>
@@ -4278,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="X46" s="0" t="n">
         <v>1</v>
@@ -4290,20 +4440,20 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47,1,3)</f>
+        <f aca="false">MID(C47, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2</v>
@@ -4327,13 +4477,13 @@
         <v>2</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>2</v>
@@ -4342,11 +4492,14 @@
         <v>0</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T47" s="0" t="n">
+        <v>0.174</v>
+      </c>
       <c r="U47" s="0" t="n">
         <v>0</v>
       </c>
@@ -4354,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X47" s="0" t="n">
         <v>3</v>
@@ -4366,23 +4519,23 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48,1,3)</f>
+        <f aca="false">MID(C48, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1</v>
@@ -4397,22 +4550,22 @@
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.071</v>
+        <v>0.077</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.071</v>
+        <v>0.077</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="0" t="n">
         <v>0</v>
@@ -4421,7 +4574,10 @@
         <v>8</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>0.368</v>
       </c>
       <c r="U48" s="0" t="n">
         <v>0</v>
@@ -4433,25 +4589,25 @@
         <v>0</v>
       </c>
       <c r="X48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="0" t="n">
         <f aca="false">X48-W48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49,1,3)</f>
+        <f aca="false">MID(C49, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E49" s="0" t="n">
@@ -4485,7 +4641,7 @@
         <v>0.067</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>1</v>
@@ -4499,6 +4655,9 @@
       <c r="S49" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T49" s="0" t="n">
+        <v>0.125</v>
+      </c>
       <c r="U49" s="0" t="n">
         <v>0</v>
       </c>
@@ -4518,26 +4677,26 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50,1,3)</f>
+        <f aca="false">MID(C50, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
@@ -4549,43 +4708,46 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T50" s="0" t="n">
+        <v>0.167</v>
+      </c>
       <c r="U50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W50" s="1" t="s">
-        <v>36</v>
+      <c r="W50" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="0" t="n">
         <f aca="false">X50-W50</f>
@@ -4594,26 +4756,26 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51,1,3)</f>
+        <f aca="false">MID(C51, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
@@ -4625,25 +4787,25 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>8</v>
@@ -4651,6 +4813,9 @@
       <c r="S51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T51" s="0" t="n">
+        <v>0.211</v>
+      </c>
       <c r="U51" s="0" t="n">
         <v>0</v>
       </c>
@@ -4661,83 +4826,86 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0" t="n">
         <f aca="false">X51-W51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52,1,3)</f>
+        <f aca="false">MID(C52, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="S52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T52" s="0" t="n">
+        <v>0.15</v>
+      </c>
       <c r="U52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W52" s="0" t="n">
-        <v>0</v>
+      <c r="W52" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y52" s="0" t="n">
         <f aca="false">X52-W52</f>
@@ -4746,23 +4914,23 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C53, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -4777,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>0</v>
@@ -4789,56 +4957,59 @@
         <v>0</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T53" s="0" t="n">
+        <v>0.176</v>
+      </c>
       <c r="U53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>70</v>
+      <c r="W53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y53" s="0" t="n">
         <f aca="false">X53-W53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54,1,3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C54, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -4865,19 +5036,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>0.188</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
@@ -4885,36 +5059,36 @@
       <c r="V54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>0</v>
+      <c r="W54" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="X54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y54" s="0" t="n">
         <f aca="false">X54-W54</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C55, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -4929,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0</v>
@@ -4941,19 +5115,22 @@
         <v>0</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0.083</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>0</v>
@@ -4961,36 +5138,36 @@
       <c r="V55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W55" s="1" t="s">
-        <v>36</v>
+      <c r="W55" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="0" t="n">
         <f aca="false">X55-W55</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56,1,3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C56, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -5005,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>0</v>
@@ -5017,19 +5194,22 @@
         <v>0</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>0.091</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>0</v>
@@ -5037,87 +5217,90 @@
       <c r="V56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W56" s="0" t="n">
-        <v>0</v>
+      <c r="W56" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y56" s="0" t="n">
         <f aca="false">X56-W56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57,1,3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C57, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="S57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T57" s="0" t="n">
+        <v>0.273</v>
+      </c>
       <c r="U57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W57" s="1" t="s">
-        <v>29</v>
+      <c r="W57" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="0" t="n">
         <f aca="false">X57-W57</f>
@@ -5126,74 +5309,77 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58,1,3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C58, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="S58" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T58" s="0" t="n">
+        <v>0.429</v>
+      </c>
       <c r="U58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="0" t="n">
-        <v>0</v>
+      <c r="W58" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y58" s="0" t="n">
         <f aca="false">X58-W58</f>
@@ -5202,20 +5388,20 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59,1,3)</f>
+        <f aca="false">MID(C59, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
@@ -5245,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>1</v>
@@ -5258,6 +5444,9 @@
       </c>
       <c r="S59" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0.143</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>0</v>
@@ -5278,23 +5467,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60,1,3)</f>
+        <f aca="false">MID(C60, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>0</v>
@@ -5324,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="0" t="n">
         <v>0</v>
@@ -5335,17 +5524,20 @@
       <c r="S60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T60" s="0" t="n">
+        <v>0.571</v>
+      </c>
       <c r="U60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W60" s="0" t="n">
-        <v>0</v>
+      <c r="W60" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="X60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60" s="0" t="n">
         <f aca="false">X60-W60</f>
@@ -5354,23 +5546,23 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61,1,3)</f>
+        <f aca="false">MID(C61, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -5397,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>0</v>
@@ -5411,17 +5603,20 @@
       <c r="S61" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="T61" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="U61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W61" s="1" t="s">
-        <v>70</v>
+      <c r="W61" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="0" t="n">
         <f aca="false">X61-W61</f>
@@ -5430,16 +5625,16 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62,1,3)</f>
+        <f aca="false">MID(C62, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E62" s="0" t="n">
@@ -5473,19 +5668,22 @@
         <v>0</v>
       </c>
       <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="0" t="n">
         <v>0.5</v>
-      </c>
-      <c r="P62" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="U62" s="0" t="n">
         <v>0</v>
@@ -5506,16 +5704,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D63" s="0" t="str">
-        <f aca="false">MID(C63,1,3)</f>
+        <f aca="false">MID(C63, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E63" s="0" t="n">
@@ -5561,6 +5759,9 @@
         <v>0</v>
       </c>
       <c r="S63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U63" s="0" t="n">
@@ -5577,6 +5778,85 @@
       </c>
       <c r="Y63" s="0" t="n">
         <f aca="false">X63-W63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="false">MID(C64, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <f aca="false">X64-W64</f>
         <v>0</v>
       </c>
     </row>

--- a/data/csv/stats_batting_raw_tsl_2024.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="stats_batting_raw_tsl_2024_tmp" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="stats_batting_raw_tsl_2024" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">First name</t>
+    <t xml:space="preserve">FIRST NAME</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -55,13 +55,13 @@
     <t xml:space="preserve">TB</t>
   </si>
   <si>
-    <t xml:space="preserve"> AVG</t>
+    <t xml:space="preserve">  AVG</t>
   </si>
   <si>
     <t xml:space="preserve"> SLG%</t>
   </si>
   <si>
-    <t xml:space="preserve">OPS</t>
+    <t xml:space="preserve">  OB%</t>
   </si>
   <si>
     <t xml:space="preserve">BB</t>
@@ -76,9 +76,6 @@
     <t xml:space="preserve">GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">  OB%</t>
-  </si>
-  <si>
     <t xml:space="preserve">SF</t>
   </si>
   <si>
@@ -103,70 +100,106 @@
     <t xml:space="preserve">ORIOLES..</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZCUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">MENDOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZCUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
   </si>
   <si>
     <t xml:space="preserve">RODRIGUEZ</t>
@@ -181,15 +214,36 @@
     <t xml:space="preserve">9</t>
   </si>
   <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRUZ</t>
   </si>
   <si>
     <t xml:space="preserve">RAFAEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -202,37 +256,55 @@
     <t xml:space="preserve">ORIOLES....</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
   </si>
   <si>
     <t xml:space="preserve">VARGAS</t>
@@ -244,87 +316,33 @@
     <t xml:space="preserve">ATLANTA......</t>
   </si>
   <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
   </si>
   <si>
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
     <t xml:space="preserve">LARA</t>
   </si>
   <si>
@@ -334,13 +352,13 @@
     <t xml:space="preserve">TAMPA..........</t>
   </si>
   <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
   </si>
   <si>
     <t xml:space="preserve">WALO</t>
@@ -349,19 +367,13 @@
     <t xml:space="preserve">SEBASTIAN</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
   </si>
   <si>
     <t xml:space="preserve">LAMONJCA</t>
@@ -370,66 +382,54 @@
     <t xml:space="preserve">MIRKO</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">INFANTE</t>
   </si>
   <si>
     <t xml:space="preserve">RAIMOND</t>
   </si>
   <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">EVIAN ROMERO</t>
   </si>
   <si>
     <t xml:space="preserve">JORGE</t>
   </si>
   <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONTIEL</t>
   </si>
   <si>
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTAL TORO</t>
   </si>
   <si>
@@ -439,6 +439,18 @@
     <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWAAK</t>
   </si>
   <si>
@@ -448,18 +460,6 @@
     <t xml:space="preserve">ORIOLES........</t>
   </si>
   <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
     <t xml:space="preserve">PEREZ</t>
   </si>
   <si>
@@ -520,30 +520,24 @@
     <t xml:space="preserve">DODGERS...</t>
   </si>
   <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTON</t>
   </si>
   <si>
     <t xml:space="preserve">WILDER</t>
   </si>
   <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.........</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORLONI</t>
   </si>
   <si>
@@ -559,16 +553,16 @@
     <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
     <t xml:space="preserve">SERRA</t>
@@ -781,32 +775,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:Y64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2:X64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,32 +873,29 @@
       <c r="X1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2, 1, 3)</f>
+        <f aca="false">MID(C2,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>8</v>
@@ -913,25 +904,25 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.567</v>
+        <v>0.576</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.933</v>
+        <v>1</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0</v>
+        <v>0.689</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
@@ -943,47 +934,44 @@
         <v>0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>27</v>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <f aca="false">X2-W2</f>
+        <f aca="false">W2-V2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3, 1, 3)</f>
+        <f aca="false">MID(C3,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3</v>
@@ -998,16 +986,16 @@
         <v>18</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.542</v>
+        <v>0.519</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1.292</v>
+        <v>1.185</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>9</v>
@@ -1016,122 +1004,116 @@
         <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>31</v>
+      <c r="V3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <f aca="false">X3-W3</f>
+        <f aca="false">W3-V3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C4,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.538</v>
+        <v>0.478</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.846</v>
+        <v>0.739</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.563</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <f aca="false">X4-W4</f>
+        <f aca="false">W4-V4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5, 1, 3)</f>
+        <f aca="false">MID(C5,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -1165,7 +1147,7 @@
         <v>0.727</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0</v>
+        <v>0.455</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
@@ -1180,37 +1162,34 @@
         <v>0</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>38</v>
+      <c r="V5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <f aca="false">X5-W5</f>
+        <f aca="false">W5-V5</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6, 1, 3)</f>
+        <f aca="false">MID(C6,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -1244,7 +1223,7 @@
         <v>1.15</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0</v>
+        <v>0.593</v>
       </c>
       <c r="P6" s="0" t="n">
         <v>5</v>
@@ -1259,53 +1238,50 @@
         <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>42</v>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <f aca="false">X6-W6</f>
+        <f aca="false">W6-V6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C7,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1314,46 +1290,43 @@
         <v>7</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.619</v>
+        <v>0.688</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.586</v>
+        <v>1</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>27</v>
+      <c r="V7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <f aca="false">X7-W7</f>
+        <f aca="false">W7-V7</f>
         <v>0</v>
       </c>
     </row>
@@ -1365,47 +1338,47 @@
         <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8, 1, 3)</f>
+        <f aca="false">MID(C8,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.6</v>
+        <v>0.632</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>1</v>
@@ -1417,50 +1390,47 @@
         <v>0</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.511</v>
+        <v>0</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>48</v>
+      <c r="V8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <f aca="false">X8-W8</f>
+        <f aca="false">W8-V8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C9,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -1475,28 +1445,28 @@
         <v>10</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.368</v>
+        <v>0.348</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.526</v>
+        <v>0.435</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>0.538</v>
+        <v>1</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -1504,200 +1474,191 @@
       <c r="V9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>52</v>
+      <c r="W9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <f aca="false">X9-W9</f>
-        <v>1</v>
+        <f aca="false">W9-V9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">MID(C10,1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10, 1, 3)</f>
-        <v>DOD</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="X10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <f aca="false">X10-W10</f>
+        <f aca="false">W10-V10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C11,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>8</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <f aca="false">X11-W11</f>
-        <v>0</v>
+        <f aca="false">W11-V11</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C12,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1709,150 +1670,144 @@
         <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.333</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.333</v>
+        <v>0.472</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>0.524</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>27</v>
+      <c r="V12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <f aca="false">X12-W12</f>
-        <v>1</v>
+        <f aca="false">W12-V12</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C13,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.459</v>
+        <v>0.476</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="S13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>65</v>
+      <c r="V13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <f aca="false">X13-W13</f>
-        <v>2</v>
+        <f aca="false">W13-V13</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14, 1, 3)</f>
+        <f aca="false">MID(C14,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -1867,16 +1822,16 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.387</v>
+        <v>0.382</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0</v>
+        <v>0.477</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>10</v>
@@ -1891,47 +1846,44 @@
         <v>1</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.488</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>38</v>
+      <c r="V14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <f aca="false">X14-W14</f>
+        <f aca="false">W14-V14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15, 1, 3)</f>
+        <f aca="false">MID(C15,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
@@ -1946,16 +1898,16 @@
         <v>3</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0</v>
+        <v>0.447</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>5</v>
@@ -1964,554 +1916,533 @@
         <v>2</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>0.457</v>
+        <v>0</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>27</v>
+      <c r="V15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <f aca="false">X15-W15</f>
+        <f aca="false">W15-V15</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C16,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="M16" s="0" t="n">
-        <v>0.308</v>
+        <v>0.321</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.308</v>
+        <v>0.464</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0</v>
+        <v>0.486</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <f aca="false">X16-W16</f>
-        <v>0</v>
+        <f aca="false">W16-V16</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C17,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>9</v>
       </c>
       <c r="H17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
+      <c r="S17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Q17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="X17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <f aca="false">X17-W17</f>
-        <v>3</v>
+        <f aca="false">W17-V17</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C18,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.294</v>
+        <v>0.316</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.294</v>
+        <v>0.421</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>76</v>
+      <c r="W18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <f aca="false">X18-W18</f>
-        <v>1</v>
+        <f aca="false">W18-V18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C19,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.292</v>
+        <v>0.303</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.458</v>
+        <v>0.364</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0</v>
+        <v>0.395</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0.469</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>27</v>
+      <c r="V19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <f aca="false">X19-W19</f>
-        <v>0</v>
+        <f aca="false">W19-V19</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20, 1, 3)</f>
+        <f aca="false">MID(C20,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="L20" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.419</v>
+        <v>0.294</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>0.421</v>
+        <v>1</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>27</v>
+      <c r="V20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <f aca="false">X20-W20</f>
-        <v>2</v>
+        <f aca="false">W20-V20</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21, 1, 3)</f>
+        <f aca="false">MID(C21,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="M21" s="0" t="n">
-        <v>0.279</v>
+        <v>0.286</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.372</v>
+        <v>0.321</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>48</v>
+      <c r="V21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <f aca="false">X21-W21</f>
-        <v>3</v>
+        <f aca="false">W21-V21</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C22,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="M22" s="0" t="n">
-        <v>0.276</v>
+        <v>0.286</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.31</v>
+        <v>0.429</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0</v>
+        <v>0.286</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>0</v>
@@ -2523,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
         <v>0</v>
@@ -2531,39 +2462,36 @@
       <c r="V22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>31</v>
+      <c r="W22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <f aca="false">X22-W22</f>
-        <v>2</v>
+        <f aca="false">W22-V22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23, 1, 3)</f>
+        <f aca="false">MID(C23,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>2</v>
@@ -2578,19 +2506,19 @@
         <v>7</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>1</v>
@@ -2602,77 +2530,74 @@
         <v>0</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0.386</v>
+        <v>0</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>76</v>
+      <c r="V23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <f aca="false">X23-W23</f>
+        <f aca="false">W23-V23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C24,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="P24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="M24" s="0" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Q24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>7</v>
@@ -2681,71 +2606,68 @@
         <v>0</v>
       </c>
       <c r="T24" s="0" t="n">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>31</v>
+      <c r="V24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <f aca="false">X24-W24</f>
-        <v>1</v>
+        <f aca="false">W24-V24</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C25,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.263</v>
+        <v>0.267</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.316</v>
+        <v>0.356</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0</v>
+        <v>0.353</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>4</v>
@@ -2754,59 +2676,56 @@
         <v>2</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <f aca="false">X25-W25</f>
-        <v>0</v>
+        <f aca="false">W25-V25</f>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C26,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -2815,31 +2734,31 @@
         <v>3</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.261</v>
+        <v>0.267</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.478</v>
+        <v>0.267</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>0</v>
@@ -2847,14 +2766,11 @@
       <c r="V26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>31</v>
+      <c r="W26" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="0" t="n">
-        <f aca="false">X26-W26</f>
+        <f aca="false">W26-V26</f>
         <v>0</v>
       </c>
     </row>
@@ -2863,105 +2779,102 @@
         <v>98</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27, 1, 3)</f>
+        <f aca="false">MID(C27,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" s="0" t="n">
         <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.417</v>
+        <v>0.375</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
+      <c r="V27" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <f aca="false">X27-W27</f>
+        <f aca="false">W27-V27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C28,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1</v>
@@ -2970,64 +2883,61 @@
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>8</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V28" s="0" t="n">
-        <v>0</v>
+      <c r="V28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <f aca="false">X28-W28</f>
-        <v>1</v>
+        <f aca="false">W28-V28</f>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29, 1, 3)</f>
+        <f aca="false">MID(C29,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -3061,7 +2971,7 @@
         <v>0.471</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>4</v>
@@ -3076,165 +2986,159 @@
         <v>0</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="U29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>76</v>
+      <c r="V29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <f aca="false">X29-W29</f>
+        <f aca="false">W29-V29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C30,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.296</v>
+        <v>0.423</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="0" t="n">
-        <v>0.276</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>76</v>
+      <c r="V30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="0" t="n">
-        <f aca="false">X30-W30</f>
+        <f aca="false">W30-V30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C31,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="P31" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="Q31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>0.417</v>
+        <v>1</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
@@ -3242,270 +3146,258 @@
       <c r="V31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>48</v>
+      <c r="W31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <f aca="false">X31-W31</f>
-        <v>3</v>
+        <f aca="false">W31-V31</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C32,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W32" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="X32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="0" t="n">
-        <f aca="false">X32-W32</f>
-        <v>0</v>
+        <f aca="false">W32-V32</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C33,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.2</v>
+        <v>0.194</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.3</v>
+        <v>0.258</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0</v>
+        <v>0.242</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>0.238</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V33" s="0" t="n">
-        <v>0</v>
+      <c r="V33" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="0" t="n">
-        <f aca="false">X33-W33</f>
+        <f aca="false">W33-V33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C34,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="S34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V34" s="0" t="n">
-        <v>0</v>
+      <c r="V34" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <f aca="false">X34-W34</f>
+        <f aca="false">W34-V34</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C35,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>3</v>
@@ -3514,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>
@@ -3523,98 +3415,95 @@
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.19</v>
+        <v>0.182</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.238</v>
+        <v>0.318</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="P35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="S35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>0.393</v>
+        <v>1</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>27</v>
+      <c r="V35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <f aca="false">X35-W35</f>
-        <v>0</v>
+        <f aca="false">W35-V35</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C36,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0.188</v>
+        <v>0.182</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.188</v>
+        <v>0.273</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>1</v>
@@ -3629,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0" t="n">
         <v>0</v>
@@ -3637,42 +3526,39 @@
       <c r="V36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>31</v>
+      <c r="W36" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <f aca="false">X36-W36</f>
-        <v>1</v>
+        <f aca="false">W36-V36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37, 1, 3)</f>
+        <f aca="false">MID(C37,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0</v>
@@ -3681,113 +3567,110 @@
         <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.167</v>
+        <v>0.174</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.167</v>
+        <v>0.217</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="U37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>31</v>
+      <c r="V37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <f aca="false">X37-W37</f>
-        <v>1</v>
+        <f aca="false">W37-V37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C38,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.167</v>
+        <v>0.172</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.278</v>
+        <v>0.345</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" s="0" t="n">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0" t="n">
         <v>0</v>
@@ -3795,112 +3678,106 @@
       <c r="V38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>76</v>
+      <c r="W38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <f aca="false">X38-W38</f>
-        <v>0</v>
+        <f aca="false">W38-V38</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C39,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.167</v>
+        <v>0.158</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="0" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V39" s="0" t="n">
-        <v>0</v>
+      <c r="V39" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <f aca="false">X39-W39</f>
+        <f aca="false">W39-V39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40, 1, 3)</f>
+        <f aca="false">MID(C40,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -3924,13 +3801,13 @@
         <v>5</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.16</v>
+        <v>0.154</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.2</v>
+        <v>0.192</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>2</v>
@@ -3939,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0" t="n">
         <v>0</v>
@@ -3957,25 +3834,22 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <f aca="false">X40-W40</f>
+        <f aca="false">W40-V40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41, 1, 3)</f>
+        <f aca="false">MID(C41,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -4009,7 +3883,7 @@
         <v>0.231</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0</v>
+        <v>0.421</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>6</v>
@@ -4024,37 +3898,34 @@
         <v>0</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>38</v>
+      <c r="V41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <f aca="false">X41-W41</f>
+        <f aca="false">W41-V41</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42, 1, 3)</f>
+        <f aca="false">MID(C42,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -4088,13 +3959,13 @@
         <v>0.154</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="0" t="n">
         <v>7</v>
@@ -4103,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -4115,38 +3986,35 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="0" t="n">
-        <f aca="false">X42-W42</f>
+        <f aca="false">W42-V42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43, 1, 3)</f>
+        <f aca="false">MID(C43,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>0</v>
@@ -4155,22 +4023,22 @@
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0.143</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.143</v>
+        <v>0.214</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q43" s="0" t="n">
         <v>0</v>
@@ -4182,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0</v>
@@ -4194,32 +4062,29 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="0" t="n">
-        <f aca="false">X43-W43</f>
+        <f aca="false">W43-V43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44, 1, 3)</f>
+        <f aca="false">MID(C44,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1</v>
@@ -4234,34 +4099,34 @@
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.125</v>
+        <v>0.143</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.125</v>
+        <v>0.143</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0" t="n">
         <v>0</v>
@@ -4269,36 +4134,33 @@
       <c r="V44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W44" s="1" t="s">
-        <v>76</v>
+      <c r="W44" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <f aca="false">X44-W44</f>
+        <f aca="false">W44-V44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45, 1, 3)</f>
+        <f aca="false">MID(C45,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>2</v>
@@ -4313,34 +4175,34 @@
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.118</v>
+        <v>0.133</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.118</v>
+        <v>0.133</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>0</v>
@@ -4352,29 +4214,26 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="0" t="n">
-        <f aca="false">X45-W45</f>
-        <v>1</v>
+        <f aca="false">W45-V45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46, 1, 3)</f>
+        <f aca="false">MID(C46,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2</v>
@@ -4383,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0</v>
@@ -4392,74 +4251,71 @@
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.105</v>
+        <v>0.118</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.158</v>
+        <v>0.118</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0</v>
+        <v>0.348</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>76</v>
+      <c r="W46" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="0" t="n">
-        <f aca="false">X46-W46</f>
-        <v>0</v>
+        <f aca="false">W46-V46</f>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C47,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -4471,150 +4327,144 @@
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.095</v>
+        <v>0.111</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.095</v>
+        <v>0.111</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>31</v>
+      <c r="V47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="X47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y47" s="0" t="n">
-        <f aca="false">X47-W47</f>
+        <f aca="false">W47-V47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C48,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P48" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="Q48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="0" t="n">
-        <v>0.368</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
+      <c r="V48" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="0" t="n">
-        <f aca="false">X48-W48</f>
-        <v>1</v>
+        <f aca="false">W48-V48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C49,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1</v>
@@ -4629,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>1</v>
@@ -4641,22 +4491,22 @@
         <v>0.067</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U49" s="0" t="n">
         <v>0</v>
@@ -4665,32 +4515,29 @@
         <v>0</v>
       </c>
       <c r="W49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <f aca="false">X49-W49</f>
-        <v>0</v>
+        <f aca="false">W49-V49</f>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C50,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -4708,34 +4555,34 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="U50" s="0" t="n">
         <v>0</v>
@@ -4747,29 +4594,26 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="0" t="n">
-        <f aca="false">X50-W50</f>
+        <f aca="false">W50-V50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51, 1, 3)</f>
+        <f aca="false">MID(C51,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
@@ -4787,34 +4631,34 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0.063</v>
+        <v>0.056</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.063</v>
+        <v>0.056</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>0</v>
@@ -4826,35 +4670,32 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="0" t="n">
-        <f aca="false">X51-W51</f>
+        <f aca="false">W51-V51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52, 1, 3)</f>
+        <f aca="false">MID(C52,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
@@ -4869,16 +4710,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>3</v>
@@ -4887,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T52" s="0" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="U52" s="0" t="n">
         <v>0</v>
@@ -4901,115 +4742,109 @@
       <c r="V52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>38</v>
+      <c r="W52" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="0" t="n">
-        <f aca="false">X52-W52</f>
+        <f aca="false">W52-V52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53, 1, 3)</f>
+        <f aca="false">MID(C53,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="S53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V53" s="0" t="n">
-        <v>0</v>
+      <c r="V53" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <f aca="false">X53-W53</f>
-        <v>1</v>
+        <f aca="false">W53-V53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C54,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -5024,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>0</v>
@@ -5036,22 +4871,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
@@ -5059,36 +4894,33 @@
       <c r="V54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="1" t="s">
-        <v>76</v>
+      <c r="W54" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="0" t="n">
-        <f aca="false">X54-W54</f>
-        <v>0</v>
+        <f aca="false">W54-V54</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C55,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -5103,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0</v>
@@ -5115,52 +4947,49 @@
         <v>0</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55" s="0" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V55" s="0" t="n">
-        <v>0</v>
+      <c r="V55" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="0" t="n">
-        <f aca="false">X55-W55</f>
+        <f aca="false">W55-V55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56, 1, 3)</f>
+        <f aca="false">MID(C56,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E56" s="0" t="n">
@@ -5194,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>0</v>
@@ -5209,44 +5038,41 @@
         <v>0</v>
       </c>
       <c r="T56" s="0" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="U56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>38</v>
+      <c r="V56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y56" s="0" t="n">
-        <f aca="false">X56-W56</f>
+        <f aca="false">W56-V56</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C57,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
@@ -5273,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P57" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q57" s="0" t="n">
         <v>0</v>
@@ -5288,74 +5114,71 @@
         <v>0</v>
       </c>
       <c r="T57" s="0" t="n">
-        <v>0.273</v>
+        <v>0</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V57" s="0" t="n">
-        <v>0</v>
+      <c r="V57" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="0" t="n">
-        <f aca="false">X57-W57</f>
-        <v>0</v>
+        <f aca="false">W57-V57</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="C58" s="0" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C58,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="P58" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="Q58" s="0" t="n">
         <v>0</v>
@@ -5367,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>0</v>
@@ -5375,33 +5198,30 @@
       <c r="V58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="1" t="s">
-        <v>31</v>
+      <c r="W58" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y58" s="0" t="n">
-        <f aca="false">X58-W58</f>
+        <f aca="false">W58-V58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59, 1, 3)</f>
+        <f aca="false">MID(C59,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
@@ -5431,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>1</v>
@@ -5440,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T59" s="0" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="U59" s="0" t="n">
         <v>0</v>
@@ -5458,25 +5278,22 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="0" t="n">
-        <f aca="false">X59-W59</f>
+        <f aca="false">W59-V59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60, 1, 3)</f>
+        <f aca="false">MID(C60,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E60" s="0" t="n">
@@ -5510,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>4</v>
@@ -5525,44 +5342,41 @@
         <v>0</v>
       </c>
       <c r="T60" s="0" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="U60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>76</v>
+      <c r="V60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="X60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="0" t="n">
-        <f aca="false">X60-W60</f>
+        <f aca="false">W60-V60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C61,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -5589,16 +5403,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>0</v>
@@ -5616,32 +5430,29 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="0" t="n">
-        <f aca="false">X61-W61</f>
+        <f aca="false">W61-V61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>181</v>
-      </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C62,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>0</v>
@@ -5671,19 +5482,19 @@
         <v>0</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T62" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U62" s="0" t="n">
         <v>0</v>
@@ -5695,25 +5506,22 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="0" t="n">
-        <f aca="false">X62-W62</f>
+        <f aca="false">W62-V62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D63" s="0" t="str">
-        <f aca="false">MID(C63, 1, 3)</f>
+        <f aca="false">MID(C63,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E63" s="0" t="n">
@@ -5774,10 +5582,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="0" t="n">
-        <f aca="false">X63-W63</f>
+        <f aca="false">W63-V63</f>
         <v>0</v>
       </c>
     </row>
@@ -5786,13 +5591,13 @@
         <v>147</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D64" s="0" t="str">
-        <f aca="false">MID(C64, 1, 3)</f>
+        <f aca="false">MID(C64,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E64" s="0" t="n">
@@ -5826,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="0" t="n">
         <v>1</v>
@@ -5841,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="0" t="n">
         <v>0</v>
@@ -5853,10 +5658,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="0" t="n">
-        <f aca="false">X64-W64</f>
+        <f aca="false">W64-V64</f>
         <v>0</v>
       </c>
     </row>

--- a/data/csv/stats_batting_raw_tsl_2024.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024.xlsx
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">FIRST NAME</t>
+    <t xml:space="preserve">First name</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
-    <t xml:space="preserve">AB</t>
+    <t xml:space="preserve"> AB</t>
   </si>
   <si>
     <t xml:space="preserve"> R</t>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">  OB%</t>
   </si>
   <si>
+    <t xml:space="preserve">OPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BB</t>
   </si>
   <si>
@@ -91,6 +94,15 @@
     <t xml:space="preserve">CS</t>
   </si>
   <si>
+    <t xml:space="preserve">REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROINEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLOMBO</t>
   </si>
   <si>
@@ -142,9 +154,6 @@
     <t xml:space="preserve">JOSHUA</t>
   </si>
   <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -160,30 +169,57 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIEMEYER</t>
   </si>
   <si>
     <t xml:space="preserve">FINN</t>
   </si>
   <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">GARCIA</t>
   </si>
   <si>
     <t xml:space="preserve">LUISFER</t>
   </si>
   <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">MILANO</t>
   </si>
   <si>
@@ -202,6 +238,12 @@
     <t xml:space="preserve">TAMPA..</t>
   </si>
   <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODRIGUEZ</t>
   </si>
   <si>
@@ -211,16 +253,22 @@
     <t xml:space="preserve">ATLANTA..</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.....</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
   </si>
   <si>
     <t xml:space="preserve">ROJAS</t>
@@ -229,45 +277,21 @@
     <t xml:space="preserve">ANGEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
     <t xml:space="preserve">TAMPA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPECK</t>
   </si>
   <si>
@@ -277,19 +301,16 @@
     <t xml:space="preserve">DODGERS........</t>
   </si>
   <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
   </si>
   <si>
     <t xml:space="preserve">QUINTANA</t>
@@ -298,15 +319,6 @@
     <t xml:space="preserve">SAMUEL</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGER</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARGAS</t>
   </si>
   <si>
@@ -316,12 +328,6 @@
     <t xml:space="preserve">ATLANTA......</t>
   </si>
   <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE LOS SANTOS</t>
   </si>
   <si>
@@ -343,6 +349,12 @@
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">VRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">LARA</t>
   </si>
   <si>
@@ -352,6 +364,24 @@
     <t xml:space="preserve">TAMPA..........</t>
   </si>
   <si>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALICE</t>
   </si>
   <si>
@@ -361,36 +391,30 @@
     <t xml:space="preserve">ATLANTA.......</t>
   </si>
   <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">GANASSI</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GORTEMULDER</t>
   </si>
   <si>
     <t xml:space="preserve">PEPIJN</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">INFANTE</t>
   </si>
   <si>
@@ -412,24 +436,6 @@
     <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTAL TORO</t>
   </si>
   <si>
@@ -469,6 +475,12 @@
     <t xml:space="preserve">DODGERS......</t>
   </si>
   <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALBERTINI</t>
   </si>
   <si>
@@ -478,12 +490,6 @@
     <t xml:space="preserve">ORIOLES.</t>
   </si>
   <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">KOCH</t>
   </si>
   <si>
@@ -547,28 +553,22 @@
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
     <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
   </si>
 </sst>
 </file>
@@ -775,32 +775,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2:X64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,62 +873,65 @@
       <c r="X1" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C2, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.576</v>
+        <v>1</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>0.689</v>
+        <v>1</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
         <v>0</v>
@@ -939,15 +942,18 @@
       <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>26</v>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X2" s="0" t="n">
-        <f aca="false">W2-V2</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <f aca="false">X2-W2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,69 +967,72 @@
         <v>29</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C3, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>18</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.519</v>
+        <v>0.528</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1.185</v>
+        <v>0.917</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.639</v>
+        <v>0.653</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="X3" s="0" t="n">
-        <f aca="false">W3-V3</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <f aca="false">X3-W3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,145 +1046,151 @@
         <v>33</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C4, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>5</v>
+      <c r="V4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X4" s="0" t="n">
-        <f aca="false">W4-V4</f>
+        <v>3</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">X4-W4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C5, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>3</v>
+      <c r="V5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X5" s="0" t="n">
-        <f aca="false">W5-V5</f>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <f aca="false">X5-W5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,68 +1204,71 @@
         <v>40</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C6, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="0" t="n">
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="S6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <f aca="false">W6-V6</f>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">X6-W6</f>
         <v>1</v>
       </c>
     </row>
@@ -1262,211 +1280,217 @@
         <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">MID(C7, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1, 3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <f aca="false">W7-V7</f>
-        <v>0</v>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">X7-W7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C8, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.368</v>
+        <v>0.421</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0.632</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.52</v>
+        <v>0.455</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X8" s="0" t="n">
-        <f aca="false">W8-V8</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">X8-W8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C9, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="T9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>0</v>
@@ -1474,72 +1498,75 @@
       <c r="V9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
+      <c r="W9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X9" s="0" t="n">
-        <f aca="false">W9-V9</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">X9-W9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="L10" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R10" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0</v>
@@ -1547,14 +1574,17 @@
       <c r="U10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>5</v>
+      <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X10" s="0" t="n">
-        <f aca="false">W10-V10</f>
+        <v>6</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">X10-W10</f>
         <v>1</v>
       </c>
     </row>
@@ -1569,20 +1599,20 @@
         <v>56</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1, 3)</f>
+        <f aca="false">MID(C11, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1594,44 +1624,47 @@
         <v>4</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0.333</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.452</v>
+        <v>0.467</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.429</v>
+        <v>0.487</v>
       </c>
       <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <f aca="false">W11-V11</f>
-        <v>2</v>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">X11-W11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,69 +1678,72 @@
         <v>59</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C12, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.472</v>
+        <v>0.378</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.442</v>
+        <v>0.468</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>6</v>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X12" s="0" t="n">
-        <f aca="false">W12-V12</f>
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">X12-W12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,53 +1757,53 @@
         <v>62</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C13, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.333</v>
+        <v>0.321</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.476</v>
+        <v>0.464</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="S13" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0</v>
@@ -1775,14 +1811,17 @@
       <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="X13" s="0" t="n">
-        <f aca="false">W13-V13</f>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <f aca="false">X13-W13</f>
         <v>1</v>
       </c>
     </row>
@@ -1794,26 +1833,26 @@
         <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C14, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1822,196 +1861,205 @@
         <v>2</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.324</v>
+        <v>0.32</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.382</v>
+        <v>0.4</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.477</v>
+        <v>0.438</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14" s="0" t="n">
-        <f aca="false">W14-V14</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <f aca="false">X14-W14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C15, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="X15" s="0" t="n">
-        <f aca="false">W15-V15</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">X15-W15</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1, 3)</f>
+        <f aca="false">MID(C16, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.464</v>
+        <v>0.447</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.486</v>
+        <v>0.435</v>
       </c>
       <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="Q16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="R16" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>6</v>
+      <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X16" s="0" t="n">
-        <f aca="false">W16-V16</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <f aca="false">X16-W16</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,151 +2067,157 @@
         <v>72</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C17, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>13</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.321</v>
+        <v>0.314</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.464</v>
+        <v>0.371</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.513</v>
+        <v>0.415</v>
       </c>
       <c r="P17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <f aca="false">W17-V17</f>
-        <v>1</v>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">X17-W17</f>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="str">
+        <f aca="false">MID(C18, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" s="0" t="n">
-        <f aca="false">W18-V18</f>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <f aca="false">X18-W18</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,102 +2225,105 @@
         <v>78</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1, 3)</f>
+        <f aca="false">MID(C19, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>30</v>
+      <c r="V19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0" t="n">
-        <f aca="false">W19-V19</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">X19-W19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C20, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -2275,74 +2332,77 @@
         <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>2</v>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X20" s="0" t="n">
-        <f aca="false">W20-V20</f>
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">X20-W20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1, 3)</f>
+        <f aca="false">MID(C21, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -2351,31 +2411,31 @@
         <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>0.286</v>
+        <v>0.294</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.321</v>
+        <v>0.382</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.355</v>
+        <v>0.429</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
@@ -2383,63 +2443,66 @@
       <c r="U21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>6</v>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X21" s="0" t="n">
-        <f aca="false">W21-V21</f>
+        <v>5</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">X21-W21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C22, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L22" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.286</v>
+        <v>0.294</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.429</v>
+        <v>0.294</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.286</v>
+        <v>0.409</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -2448,50 +2511,53 @@
         <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
+      <c r="W22" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X22" s="0" t="n">
-        <f aca="false">W22-V22</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <f aca="false">X22-W22</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C23, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>2</v>
@@ -2503,31 +2569,31 @@
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0.275</v>
+        <v>0.286</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.325</v>
+        <v>0.429</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.408</v>
+        <v>0.286</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>0</v>
@@ -2535,14 +2601,17 @@
       <c r="U23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>45</v>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="0" t="n">
-        <f aca="false">W23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <f aca="false">X23-W23</f>
         <v>0</v>
       </c>
     </row>
@@ -2554,56 +2623,56 @@
         <v>91</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C24, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="M24" s="0" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="R24" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>0</v>
@@ -2611,90 +2680,96 @@
       <c r="U24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>4</v>
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X24" s="0" t="n">
-        <f aca="false">W24-V24</f>
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">X24-W24</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1, 3)</f>
+        <f aca="false">MID(C25, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="L25" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0.267</v>
+        <v>0.265</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.356</v>
+        <v>0.347</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.353</v>
+        <v>0.345</v>
       </c>
       <c r="P25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="T25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>8</v>
+      <c r="V25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="X25" s="0" t="n">
-        <f aca="false">W25-V25</f>
+        <v>9</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">X25-W25</f>
         <v>3</v>
       </c>
     </row>
@@ -2703,27 +2778,27 @@
         <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C26, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
       </c>
@@ -2731,34 +2806,34 @@
         <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0.267</v>
+        <v>0.265</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.267</v>
+        <v>0.382</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>0</v>
@@ -2766,197 +2841,206 @@
       <c r="V26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W26" s="0" t="n">
-        <v>0</v>
+      <c r="W26" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X26" s="0" t="n">
-        <f aca="false">W26-V26</f>
+        <v>5</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">X26-W26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="C27" s="0" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C27, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
+        <f aca="false">X27-W27</f>
         <v>4</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <f aca="false">W27-V27</f>
-        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1, 3)</f>
+        <f aca="false">MID(C28, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.444</v>
+        <v>0.381</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0" t="n">
-        <f aca="false">W28-V28</f>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <f aca="false">X28-W28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C29, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1</v>
@@ -2965,25 +3049,25 @@
         <v>8</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.235</v>
+        <v>0.227</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.471</v>
+        <v>0.364</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.409</v>
+        <v>0.414</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>0</v>
@@ -2991,118 +3075,124 @@
       <c r="U29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>2</v>
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X29" s="0" t="n">
-        <f aca="false">W29-V29</f>
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <f aca="false">X29-W29</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C30, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>3</v>
+      <c r="V30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X30" s="0" t="n">
-        <f aca="false">W30-V30</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <f aca="false">X30-W30</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C31, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1</v>
@@ -3111,72 +3201,75 @@
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="S31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <f aca="false">W31-V31</f>
-        <v>1</v>
+      <c r="Y31" s="0" t="n">
+        <f aca="false">X31-W31</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="C32" s="0" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C32, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G32" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
       </c>
@@ -3187,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0.2</v>
@@ -3199,71 +3292,74 @@
         <v>0.2</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.385</v>
+        <v>0.294</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S32" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>26</v>
+      <c r="V32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X32" s="0" t="n">
-        <f aca="false">W32-V32</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <f aca="false">X32-W32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1, 3)</f>
+        <f aca="false">MID(C33, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>31</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>8</v>
@@ -3275,62 +3371,65 @@
         <v>0.258</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.242</v>
+        <v>0.366</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="0" t="n">
-        <f aca="false">W33-V33</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <f aca="false">X33-W33</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="C34" s="0" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C34, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
@@ -3342,28 +3441,28 @@
         <v>1</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0.188</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.188</v>
+        <v>0.25</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>0.235</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>0</v>
@@ -3371,15 +3470,18 @@
       <c r="U34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>4</v>
+      <c r="V34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X34" s="0" t="n">
-        <f aca="false">W34-V34</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <f aca="false">X34-W34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,29 +3492,29 @@
         <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C35, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>4</v>
@@ -3421,41 +3523,44 @@
         <v>7</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0.182</v>
+        <v>0.188</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.318</v>
+        <v>0.438</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.269</v>
+        <v>0.35</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>45</v>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0" t="n">
-        <f aca="false">W35-V35</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <f aca="false">X35-W35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,57 +3571,57 @@
         <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C36, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L36" s="0" t="n">
+      <c r="M36" s="0" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="S36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
       </c>
@@ -3526,12 +3631,15 @@
       <c r="V36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>0</v>
+      <c r="W36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X36" s="0" t="n">
-        <f aca="false">W36-V36</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <f aca="false">X36-W36</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,11 +3653,11 @@
         <v>122</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1, 3)</f>
+        <f aca="false">MID(C37, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>3</v>
@@ -3558,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0</v>
@@ -3567,47 +3675,50 @@
         <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.217</v>
+        <v>0.182</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.367</v>
+        <v>0.357</v>
       </c>
       <c r="P37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X37" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <f aca="false">W37-V37</f>
-        <v>0</v>
+      <c r="Y37" s="0" t="n">
+        <f aca="false">X37-W37</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,59 +3726,59 @@
         <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C38, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.345</v>
+        <v>0.176</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>0</v>
@@ -3676,89 +3787,95 @@
         <v>0</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X38" s="0" t="n">
-        <f aca="false">W38-V38</f>
+        <v>4</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <f aca="false">X38-W38</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1, 3)</f>
+        <f aca="false">MID(C39, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.158</v>
+        <v>0.167</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.263</v>
+        <v>0.208</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.304</v>
+        <v>0.355</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S39" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W39" s="0" t="n">
-        <v>1</v>
+      <c r="V39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="X39" s="0" t="n">
-        <f aca="false">W39-V39</f>
+        <v>4</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <f aca="false">X39-W39</f>
         <v>0</v>
       </c>
     </row>
@@ -3770,56 +3887,56 @@
         <v>128</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C40, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.154</v>
+        <v>0.167</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.192</v>
+        <v>0.25</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -3834,35 +3951,38 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="n">
-        <f aca="false">W40-V40</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <f aca="false">X40-W40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C41, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
@@ -3871,110 +3991,113 @@
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.154</v>
+        <v>0.167</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.231</v>
+        <v>0.292</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.421</v>
+        <v>0.25</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X41" s="0" t="n">
-        <f aca="false">W41-V41</f>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <f aca="false">X41-W41</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="C42" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C42, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.154</v>
+        <v>0.161</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.154</v>
+        <v>0.323</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -3986,68 +4109,71 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="n">
-        <f aca="false">W42-V42</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <f aca="false">X42-W42</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="C43" s="0" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C43, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0.143</v>
+        <v>0.15</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.214</v>
+        <v>0.25</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.333</v>
+        <v>0.292</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0</v>
@@ -4058,39 +4184,42 @@
       <c r="V43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="0" t="n">
-        <v>0</v>
+      <c r="W43" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X43" s="0" t="n">
-        <f aca="false">W43-V43</f>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <f aca="false">X43-W43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C44, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>0</v>
@@ -4099,31 +4228,31 @@
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.143</v>
+        <v>0.148</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.143</v>
+        <v>0.185</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.143</v>
+        <v>0.207</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0</v>
@@ -4138,32 +4267,35 @@
         <v>0</v>
       </c>
       <c r="X44" s="0" t="n">
-        <f aca="false">W44-V44</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <f aca="false">X44-W44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C45, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -4175,31 +4307,31 @@
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.188</v>
+        <v>0.143</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -4214,7 +4346,10 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="n">
-        <f aca="false">W45-V45</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <f aca="false">X45-W45</f>
         <v>0</v>
       </c>
     </row>
@@ -4226,17 +4361,17 @@
         <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1, 3)</f>
+        <f aca="false">MID(C46, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>2</v>
@@ -4251,34 +4386,34 @@
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.348</v>
+        <v>0.222</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>0</v>
@@ -4286,12 +4421,15 @@
       <c r="V46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>1</v>
+      <c r="W46" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X46" s="0" t="n">
-        <f aca="false">W46-V46</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <f aca="false">X46-W46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,20 +4440,20 @@
         <v>144</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C47, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -4327,31 +4465,31 @@
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.6</v>
+        <v>0.348</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>0</v>
@@ -4359,39 +4497,42 @@
       <c r="U47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>37</v>
+      <c r="V47" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0" t="n">
-        <f aca="false">W47-V47</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <f aca="false">X47-W47</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C48, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -4403,71 +4544,74 @@
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.091</v>
+        <v>0.111</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.091</v>
+        <v>0.111</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="S48" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W48" s="0" t="n">
-        <v>3</v>
+      <c r="V48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X48" s="0" t="n">
-        <f aca="false">W48-V48</f>
+        <v>2</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <f aca="false">X48-W48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C49, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -4479,32 +4623,32 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>0.067</v>
+        <v>0.091</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.067</v>
+        <v>0.091</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0.333</v>
+        <v>0.231</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="S49" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T49" s="0" t="n">
         <v>0</v>
       </c>
@@ -4514,26 +4658,29 @@
       <c r="V49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W49" s="0" t="n">
-        <v>1</v>
+      <c r="W49" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X49" s="0" t="n">
-        <f aca="false">W49-V49</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <f aca="false">X49-W49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50,1, 3)</f>
+        <f aca="false">MID(C50, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E50" s="0" t="n">
@@ -4570,17 +4717,17 @@
         <v>0.125</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S50" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T50" s="0" t="n">
         <v>0</v>
       </c>
@@ -4594,29 +4741,32 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="n">
-        <f aca="false">W50-V50</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <f aca="false">X50-W50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51,1, 3)</f>
+        <f aca="false">MID(C51, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1</v>
@@ -4631,34 +4781,34 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0.056</v>
+        <v>0.067</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.056</v>
+        <v>0.067</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.15</v>
+        <v>0.333</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>0</v>
@@ -4670,26 +4820,29 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="n">
-        <f aca="false">W51-V51</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <f aca="false">X51-W51</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>158</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52,1, 3)</f>
+        <f aca="false">MID(C52, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
@@ -4707,31 +4860,31 @@
         <v>0</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T52" s="0" t="n">
         <v>0</v>
@@ -4746,7 +4899,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="0" t="n">
-        <f aca="false">W52-V52</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <f aca="false">X52-W52</f>
         <v>0</v>
       </c>
     </row>
@@ -4755,59 +4911,59 @@
         <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53,1, 3)</f>
+        <f aca="false">MID(C53, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R53" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>0</v>
@@ -4815,14 +4971,17 @@
       <c r="U53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>37</v>
+      <c r="V53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X53" s="0" t="n">
-        <f aca="false">W53-V53</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <f aca="false">X53-W53</f>
         <v>0</v>
       </c>
     </row>
@@ -4834,17 +4993,17 @@
         <v>162</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54,1, 3)</f>
+        <f aca="false">MID(C54, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -4859,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>0</v>
@@ -4871,19 +5030,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0.158</v>
+        <v>0.143</v>
       </c>
       <c r="P54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T54" s="0" t="n">
         <v>0</v>
@@ -4894,12 +5053,15 @@
       <c r="V54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>1</v>
+      <c r="W54" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="X54" s="0" t="n">
-        <f aca="false">W54-V54</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <f aca="false">X54-W54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,14 +5072,14 @@
         <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C55, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>3</v>
@@ -4935,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0</v>
@@ -4947,19 +5109,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>0.176</v>
+        <v>0.19</v>
       </c>
       <c r="P55" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R55" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T55" s="0" t="n">
         <v>0</v>
@@ -4967,36 +5129,39 @@
       <c r="U55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>45</v>
+      <c r="V55" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" s="0" t="n">
-        <f aca="false">W55-V55</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <f aca="false">X55-W55</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="C56" s="0" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C56, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -5023,19 +5188,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>0.091</v>
+        <v>0.176</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S56" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T56" s="0" t="n">
         <v>0</v>
@@ -5043,112 +5208,118 @@
       <c r="U56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W56" s="0" t="n">
-        <v>3</v>
+      <c r="V56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X56" s="0" t="n">
-        <f aca="false">W56-V56</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <f aca="false">X56-W56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C57, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X57" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W57" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="X57" s="0" t="n">
-        <f aca="false">W57-V57</f>
+      <c r="Y57" s="0" t="n">
+        <f aca="false">X57-W57</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C58, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>0</v>
@@ -5175,20 +5346,20 @@
         <v>0</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>0.273</v>
+        <v>0.4</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S58" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T58" s="0" t="n">
         <v>0</v>
       </c>
@@ -5198,12 +5369,15 @@
       <c r="V58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="0" t="n">
-        <v>0</v>
+      <c r="W58" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X58" s="0" t="n">
-        <f aca="false">W58-V58</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <f aca="false">X58-W58</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,57 +5388,57 @@
         <v>173</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59,1, 3)</f>
+        <f aca="false">MID(C59, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="P59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T59" s="0" t="n">
         <v>0</v>
       </c>
@@ -5278,13 +5452,16 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="n">
-        <f aca="false">W59-V59</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <f aca="false">X59-W59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>175</v>
@@ -5293,14 +5470,14 @@
         <v>176</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60,1, 3)</f>
+        <f aca="false">MID(C60, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>0</v>
@@ -5327,56 +5504,59 @@
         <v>0</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0.571</v>
+        <v>0.111</v>
       </c>
       <c r="P60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>45</v>
+      <c r="V60" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="W60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0" t="n">
-        <f aca="false">W60-V60</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <f aca="false">X60-W60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="C61" s="0" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C61, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -5403,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" s="0" t="n">
         <v>0</v>
@@ -5430,29 +5610,32 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="n">
-        <f aca="false">W61-V61</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <f aca="false">X61-W61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C62, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>0</v>
@@ -5479,19 +5662,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R62" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T62" s="0" t="n">
         <v>0</v>
@@ -5506,29 +5689,32 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="n">
-        <f aca="false">W62-V62</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <f aca="false">X62-W62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="D63" s="0" t="str">
-        <f aca="false">MID(C63,1, 3)</f>
+        <f aca="false">MID(C63, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>0</v>
@@ -5555,19 +5741,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T63" s="0" t="n">
         <v>0</v>
@@ -5578,87 +5764,14 @@
       <c r="V63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W63" s="0" t="n">
-        <v>0</v>
+      <c r="W63" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="X63" s="0" t="n">
-        <f aca="false">W63-V63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="0" t="str">
-        <f aca="false">MID(C64,1, 3)</f>
-        <v>ATL</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" s="0" t="n">
-        <f aca="false">W64-V64</f>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <f aca="false">X63-W63</f>
         <v>0</v>
       </c>
     </row>

--- a/data/csv/stats_batting_raw_tsl_2024.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -103,6 +103,18 @@
     <t xml:space="preserve">TAMPA........</t>
   </si>
   <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLOMBO</t>
   </si>
   <si>
@@ -115,6 +127,15 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENDOZA</t>
   </si>
   <si>
@@ -127,27 +148,6 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">AZCUY</t>
   </si>
   <si>
@@ -157,6 +157,42 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARAYA</t>
   </si>
   <si>
@@ -169,28 +205,13 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
   </si>
   <si>
     <t xml:space="preserve">MADRIGAL</t>
@@ -202,16 +223,46 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
-    <t xml:space="preserve">CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
   </si>
   <si>
     <t xml:space="preserve">GARCIA</t>
@@ -220,55 +271,10 @@
     <t xml:space="preserve">LUISFER</t>
   </si>
   <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
   </si>
   <si>
     <t xml:space="preserve">ROJAS</t>
@@ -277,10 +283,13 @@
     <t xml:space="preserve">ANGEL</t>
   </si>
   <si>
-    <t xml:space="preserve">KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
   </si>
   <si>
     <t xml:space="preserve">CARRASCO</t>
@@ -292,13 +301,19 @@
     <t xml:space="preserve">DODGERS.</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
   </si>
   <si>
     <t xml:space="preserve">CARDINALES</t>
@@ -307,16 +322,13 @@
     <t xml:space="preserve">DODGER</t>
   </si>
   <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
   </si>
   <si>
     <t xml:space="preserve">VARGAS</t>
@@ -337,6 +349,12 @@
     <t xml:space="preserve">ATLAN</t>
   </si>
   <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOLENMAN</t>
   </si>
   <si>
@@ -346,7 +364,10 @@
     <t xml:space="preserve">TAMPA...</t>
   </si>
   <si>
-    <t xml:space="preserve">DAVIDE</t>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
   </si>
   <si>
     <t xml:space="preserve">VRANA</t>
@@ -355,13 +376,31 @@
     <t xml:space="preserve">ROMAN</t>
   </si>
   <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
     <t xml:space="preserve">WALO</t>
@@ -370,16 +409,31 @@
     <t xml:space="preserve">SEBASTIAN</t>
   </si>
   <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONTIEL</t>
   </si>
   <si>
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
   </si>
   <si>
     <t xml:space="preserve">BALICE</t>
@@ -391,34 +445,13 @@
     <t xml:space="preserve">ATLANTA.......</t>
   </si>
   <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
     <t xml:space="preserve">EVIAN ROMERO</t>
@@ -427,45 +460,12 @@
     <t xml:space="preserve">JORGE</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
     <t xml:space="preserve">MERKELBACK</t>
   </si>
   <si>
     <t xml:space="preserve">BENNETT</t>
   </si>
   <si>
-    <t xml:space="preserve">SWAAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES........</t>
-  </si>
-  <si>
     <t xml:space="preserve">PEREZ</t>
   </si>
   <si>
@@ -475,21 +475,21 @@
     <t xml:space="preserve">DODGERS......</t>
   </si>
   <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERUZZO</t>
   </si>
   <si>
     <t xml:space="preserve">MATIS</t>
   </si>
   <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
     <t xml:space="preserve">KOCH</t>
   </si>
   <si>
@@ -529,6 +529,12 @@
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONGE</t>
   </si>
   <si>
@@ -538,12 +544,6 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILDER</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORLONI</t>
   </si>
   <si>
@@ -553,22 +553,28 @@
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">YANCARLO</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
+    <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
   </si>
 </sst>
 </file>
@@ -775,16 +781,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:Y63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.62"/>
@@ -968,55 +974,55 @@
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">MID(C3, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>33</v>
-      </c>
       <c r="M3" s="0" t="n">
-        <v>0.528</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.917</v>
+        <v>0.786</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.653</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0</v>
@@ -1028,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="0" t="n">
         <f aca="false">X3-W3</f>
@@ -1047,37 +1053,37 @@
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">MID(C4, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.483</v>
+        <v>0.487</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>1.103</v>
+        <v>0.846</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0.615</v>
@@ -1086,16 +1092,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>0</v>
@@ -1107,11 +1113,11 @@
         <v>34</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">X4-W4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,13 +1135,13 @@
         <v>ORI</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -1150,22 +1156,22 @@
         <v>10</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.739</v>
+        <v>0.72</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.647</v>
+        <v>0.649</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>2</v>
@@ -1183,14 +1189,14 @@
         <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">X5-W5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,52 +1211,52 @@
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">MID(C6, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">X6-W6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,105 +1365,105 @@
         <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">MID(C8, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.566</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="Y8" s="0" t="n">
         <f aca="false">X8-W8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">MID(C9, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1466,16 +1472,16 @@
         <v>10</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.417</v>
+        <v>0.378</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.472</v>
+        <v>0.622</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.571</v>
+        <v>0.517</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1487,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0</v>
@@ -1499,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">X9-W9</f>
@@ -1511,62 +1517,62 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">MID(C10, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.381</v>
+        <v>0.375</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.643</v>
+        <v>0.531</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0.519</v>
+        <v>0.512</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0</v>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X10" s="0" t="n">
         <v>6</v>
@@ -1590,50 +1596,50 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">MID(C11, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.333</v>
+        <v>0.367</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.467</v>
+        <v>0.567</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.487</v>
+        <v>0.558</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -1642,10 +1648,10 @@
         <v>8</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>0</v>
@@ -1654,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">X11-W11</f>
@@ -1682,147 +1688,147 @@
         <v>ATL</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="M12" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">X12-W12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">MID(C13, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="L13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="R13" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">X13-W13</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,102 +1839,102 @@
         <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">MID(C14, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">X14-W14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">MID(C15, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
@@ -1937,31 +1943,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0.318</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.432</v>
+        <v>0.409</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.423</v>
+        <v>0.318</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>1</v>
@@ -1973,38 +1979,38 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">X15-W15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">MID(C16, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>5</v>
@@ -2016,25 +2022,25 @@
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.435</v>
+        <v>0.44</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>0</v>
@@ -2052,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>7</v>
@@ -2064,26 +2070,26 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">MID(C17, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>2</v>
@@ -2098,16 +2104,16 @@
         <v>5</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0.314</v>
+        <v>0.316</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.415</v>
+        <v>0.409</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
@@ -2131,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>5</v>
@@ -2143,26 +2149,26 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">MID(C18, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>11</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>3</v>
@@ -2177,16 +2183,16 @@
         <v>2</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.435</v>
+        <v>0.423</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.484</v>
+        <v>0.471</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2198,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -2210,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">X18-W18</f>
@@ -2222,10 +2228,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>80</v>
@@ -2235,52 +2241,52 @@
         <v>ORI</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.3</v>
+        <v>0.298</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.4</v>
+        <v>0.362</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.3</v>
+        <v>0.421</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
@@ -2288,15 +2294,15 @@
       <c r="V19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W19" s="0" t="n">
-        <v>0</v>
+      <c r="W19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">X19-W19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,23 +2310,23 @@
         <v>81</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">MID(C20, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -2332,77 +2338,77 @@
         <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.341</v>
+        <v>0.37</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.415</v>
+        <v>0.412</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>48</v>
+      <c r="W20" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">X20-W20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">MID(C21, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -2411,46 +2417,46 @@
         <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>0.294</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.382</v>
+        <v>0.294</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.429</v>
+        <v>0.409</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">X21-W21</f>
@@ -2459,77 +2465,77 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">MID(C22, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">X22-W22</f>
@@ -2551,16 +2557,16 @@
         <v>DOD</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -2569,50 +2575,50 @@
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" s="0" t="n">
         <f aca="false">X23-W23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,16 +2636,16 @@
         <v>DOD</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -2648,31 +2654,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0.267</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.353</v>
+        <v>0.267</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>0</v>
@@ -2683,63 +2689,63 @@
       <c r="V24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>30</v>
+      <c r="W24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0" t="n">
         <f aca="false">X24-W24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" s="0" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">MID(C25, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="M25" s="0" t="n">
-        <v>0.265</v>
+        <v>0.258</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.347</v>
+        <v>0.419</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0.345</v>
+        <v>0.378</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
@@ -2751,10 +2757,10 @@
         <v>2</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" s="0" t="n">
         <v>0</v>
@@ -2763,71 +2769,71 @@
         <v>0</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y25" s="0" t="n">
         <f aca="false">X25-W25</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">MID(C26, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="R26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>9</v>
@@ -2842,32 +2848,32 @@
         <v>0</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Y26" s="0" t="n">
         <f aca="false">X26-W26</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">MID(C27, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>7</v>
@@ -2879,34 +2885,34 @@
         <v>4</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0.257</v>
+        <v>0.25</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.429</v>
+        <v>0.361</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.422</v>
+        <v>0.449</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0" t="n">
         <v>9</v>
@@ -2921,62 +2927,62 @@
         <v>0</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="X27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Y27" s="0" t="n">
         <f aca="false">X27-W27</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">MID(C28, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.25</v>
+        <v>0.321</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.381</v>
+        <v>0.322</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -2985,77 +2991,77 @@
         <v>4</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W28" s="0" t="n">
-        <v>0</v>
+      <c r="W28" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y28" s="0" t="n">
         <f aca="false">X28-W28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">MID(C29, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L29" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>0.227</v>
+        <v>0.235</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.364</v>
+        <v>0.294</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.414</v>
+        <v>0.378</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -3064,77 +3070,77 @@
         <v>7</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>30</v>
+      <c r="W29" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="0" t="n">
         <f aca="false">X29-W29</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">MID(C30, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.444</v>
+        <v>0.235</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.391</v>
+        <v>0.364</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -3143,56 +3149,56 @@
         <v>4</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>48</v>
+      <c r="W30" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="0" t="n">
         <f aca="false">X30-W30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">MID(C31, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="H31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1</v>
@@ -3201,34 +3207,34 @@
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0.214</v>
+        <v>0.227</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.393</v>
+        <v>0.364</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0.333</v>
+        <v>0.414</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="0" t="n">
         <v>0</v>
@@ -3237,14 +3243,14 @@
         <v>0</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y31" s="0" t="n">
         <f aca="false">X31-W31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,75 +3261,75 @@
         <v>110</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">MID(C32, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" s="0" t="n">
         <f aca="false">X32-W32</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,64 +3347,64 @@
         <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>8</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.258</v>
+        <v>0.4</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.366</v>
+        <v>0.385</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="T33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W33" s="0" t="n">
-        <v>0</v>
+      <c r="W33" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="0" t="n">
         <f aca="false">X33-W33</f>
@@ -3413,23 +3419,23 @@
         <v>115</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">MID(C34, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
@@ -3438,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0.188</v>
@@ -3450,19 +3456,19 @@
         <v>0.25</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.235</v>
+        <v>0.409</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>0</v>
@@ -3474,14 +3480,14 @@
         <v>0</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y34" s="0" t="n">
         <f aca="false">X34-W34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,56 +3498,56 @@
         <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">MID(C35, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>0.188</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.438</v>
+        <v>0.188</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.35</v>
+        <v>0.278</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -3571,59 +3577,59 @@
         <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">MID(C36, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="L36" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="R36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="0" t="n">
         <v>0</v>
@@ -3631,11 +3637,11 @@
       <c r="V36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>41</v>
+      <c r="W36" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="0" t="n">
         <f aca="false">X36-W36</f>
@@ -3654,16 +3660,16 @@
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">MID(C37, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>0</v>
@@ -3675,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" s="0" t="n">
         <v>0.182</v>
@@ -3687,19 +3693,19 @@
         <v>0.182</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.357</v>
+        <v>0.609</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -3714,11 +3720,11 @@
         <v>30</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="0" t="n">
         <f aca="false">X37-W37</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,10 +3732,10 @@
         <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">MID(C38, 1, 3)</f>
@@ -3790,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X38" s="0" t="n">
         <v>4</v>
@@ -3815,49 +3821,49 @@
         <v>ATL</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="L39" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0.167</v>
+        <v>0.172</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.208</v>
+        <v>0.276</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0.355</v>
+        <v>0.226</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0</v>
@@ -3868,11 +3874,11 @@
       <c r="V39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W39" s="1" t="s">
-        <v>51</v>
+      <c r="W39" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0" t="n">
         <f aca="false">X39-W39</f>
@@ -3887,56 +3893,56 @@
         <v>128</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">MID(C40, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.167</v>
+        <v>0.171</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.25</v>
+        <v>0.229</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.2</v>
+        <v>0.237</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -3947,15 +3953,15 @@
       <c r="V40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W40" s="0" t="n">
-        <v>0</v>
+      <c r="W40" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y40" s="0" t="n">
         <f aca="false">X40-W40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,11 +3972,11 @@
         <v>130</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">MID(C41, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>24</v>
@@ -3982,7 +3988,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
@@ -3991,113 +3997,113 @@
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.167</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.292</v>
+        <v>0.208</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.25</v>
+        <v>0.355</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y41" s="0" t="n">
         <f aca="false">X41-W41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">MID(C42, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S42" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="T42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -4105,72 +4111,72 @@
       <c r="V42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W42" s="0" t="n">
-        <v>0</v>
+      <c r="W42" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y42" s="0" t="n">
         <f aca="false">X42-W42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">MID(C43, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0.15</v>
+        <v>0.167</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.25</v>
+        <v>0.389</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.292</v>
+        <v>0.318</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0" t="n">
         <v>6</v>
@@ -4184,11 +4190,11 @@
       <c r="V43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="1" t="s">
-        <v>48</v>
+      <c r="W43" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0" t="n">
         <f aca="false">X43-W43</f>
@@ -4197,62 +4203,62 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">MID(C44, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.148</v>
+        <v>0.16</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.185</v>
+        <v>0.24</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.207</v>
+        <v>0.192</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0</v>
@@ -4286,16 +4292,16 @@
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">MID(C45, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -4310,28 +4316,28 @@
         <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.143</v>
+        <v>0.16</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.143</v>
+        <v>0.16</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0.143</v>
+        <v>0.323</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -4342,15 +4348,15 @@
       <c r="V45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>0</v>
+      <c r="W45" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y45" s="0" t="n">
         <f aca="false">X45-W45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,20 +4367,20 @@
         <v>142</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">MID(C46, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -4386,34 +4392,34 @@
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0.125</v>
+        <v>0.143</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.125</v>
+        <v>0.143</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0.222</v>
+        <v>0.143</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0" t="n">
         <v>0</v>
@@ -4421,11 +4427,11 @@
       <c r="V46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>48</v>
+      <c r="W46" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="0" t="n">
         <f aca="false">X46-W46</f>
@@ -4434,63 +4440,63 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">MID(C47, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0.118</v>
+        <v>0.136</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.118</v>
+        <v>0.227</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0.348</v>
+        <v>0.269</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="T47" s="0" t="n">
         <v>0</v>
       </c>
@@ -4500,39 +4506,39 @@
       <c r="V47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W47" s="0" t="n">
-        <v>0</v>
+      <c r="W47" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y47" s="0" t="n">
         <f aca="false">X47-W47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">MID(C48, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -4544,31 +4550,31 @@
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0.6</v>
+        <v>0.348</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>0</v>
@@ -4579,15 +4585,15 @@
       <c r="V48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W48" s="1" t="s">
-        <v>41</v>
+      <c r="W48" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="0" t="n">
         <f aca="false">X48-W48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +4611,7 @@
         <v>DOD</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>3</v>
@@ -4629,40 +4635,40 @@
         <v>2</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0.231</v>
+        <v>0.241</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="R49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="T49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="Y49" s="0" t="n">
         <f aca="false">X49-W49</f>
@@ -4677,17 +4683,17 @@
         <v>152</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">MID(C50, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1</v>
@@ -4702,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>1</v>
@@ -4714,22 +4720,22 @@
         <v>0.067</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0.125</v>
+        <v>0.333</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="0" t="n">
         <v>0</v>
@@ -4741,32 +4747,32 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="0" t="n">
         <f aca="false">X50-W50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">MID(C51, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1</v>
@@ -4781,34 +4787,34 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.067</v>
+        <v>0.059</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.333</v>
+        <v>0.111</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>0</v>
@@ -4820,11 +4826,11 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0" t="n">
         <f aca="false">X51-W51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="0" t="n">
         <v>0</v>
@@ -4911,7 +4917,7 @@
         <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>160</v>
@@ -4921,7 +4927,7 @@
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
@@ -4939,19 +4945,19 @@
         <v>0</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0.167</v>
+        <v>0.16</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>0</v>
@@ -5000,7 +5006,7 @@
         <v>ORI</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>4</v>
@@ -5030,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>0.143</v>
+        <v>0.13</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>0</v>
@@ -5042,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T54" s="0" t="n">
         <v>0</v>
@@ -5054,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="X54" s="0" t="n">
         <v>2</v>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>1</v>
@@ -5230,14 +5236,14 @@
         <v>165</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">MID(C57, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -5267,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>0</v>
@@ -5279,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>0</v>
@@ -5291,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="X57" s="0" t="n">
         <v>3</v>
@@ -5309,17 +5315,17 @@
         <v>170</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">MID(C58, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>0</v>
@@ -5346,19 +5352,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>0.4</v>
+        <v>0.286</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T58" s="0" t="n">
         <v>0</v>
@@ -5369,36 +5375,36 @@
       <c r="V58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="1" t="s">
-        <v>34</v>
+      <c r="W58" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="0" t="n">
         <f aca="false">X58-W58</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">MID(C59, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>0</v>
@@ -5425,38 +5431,38 @@
         <v>0</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>0.308</v>
+        <v>0.4</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X59" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="T59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X59" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y59" s="0" t="n">
         <f aca="false">X59-W59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,13 +5546,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>177</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">MID(C61, 1, 3)</f>
@@ -5556,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -5583,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R61" s="0" t="n">
         <v>0</v>
@@ -5606,11 +5612,11 @@
       <c r="V61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W61" s="0" t="n">
-        <v>0</v>
+      <c r="W61" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="X61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61" s="0" t="n">
         <f aca="false">X61-W61</f>
@@ -5619,13 +5625,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">MID(C62, 1, 3)</f>
@@ -5698,13 +5704,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">MID(C63, 1, 3)</f>
@@ -5714,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>0</v>
@@ -5741,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="P63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>0</v>
@@ -5764,14 +5770,172 @@
       <c r="V63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W63" s="1" t="s">
-        <v>48</v>
+      <c r="W63" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X63" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="0" t="n">
         <f aca="false">X63-W63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="false">MID(C64, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <f aca="false">X64-W64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="0" t="str">
+        <f aca="false">MID(C65, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <f aca="false">X65-W65</f>
         <v>0</v>
       </c>
     </row>
